--- a/xlsx/捕食_intext.xlsx
+++ b/xlsx/捕食_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="774">
   <si>
     <t>捕食</t>
   </si>
@@ -29,7 +29,7 @@
     <t>天敌 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_捕食</t>
+    <t>政策_政策_美国_捕食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E9%BC%A0</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態學</t>
+    <t>生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E8%85%90%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>食腐動物</t>
+    <t>食腐动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E7%87%9F%E7%94%9F%E7%89%A9</t>
   </si>
   <si>
-    <t>異營生物</t>
+    <t>异营生物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%84%E7%94%9F</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E9%A4%8A%E7%B4%9A</t>
   </si>
   <si>
-    <t>營養級</t>
+    <t>营养级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%84%E4%B8%BB</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%85%E5%AD%90</t>
   </si>
   <si>
-    <t>獅子</t>
+    <t>狮子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E6%B0%B4%E7%89%9B</t>
@@ -113,19 +113,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9B%87%E9%A1%9E</t>
   </si>
   <si>
-    <t>蛇類</t>
+    <t>蛇类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E5%8C%96%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>消化系統</t>
+    <t>消化系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AC%9A%E9%AF%A8</t>
   </si>
   <si>
-    <t>鬚鯨</t>
+    <t>须鲸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%AE%E6%B8%B8%E7%94%9F%E7%89%A9</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%AE%E6%B8%B8%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>浮游動物</t>
+    <t>浮游动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%AE%E6%B8%B8%E6%A4%8D%E7%89%A9</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%99%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>蛋白質</t>
+    <t>蛋白质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%98%9F</t>
@@ -203,25 +203,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E4%BA%82%E5%BC%A7%E8%8F%8C</t>
   </si>
   <si>
-    <t>霍亂弧菌</t>
+    <t>霍乱弧菌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B1%97%E7%BF%85%E7%9B%AE</t>
   </si>
   <si>
-    <t>鱗翅目</t>
+    <t>鳞翅目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E8%9C%82</t>
   </si>
   <si>
-    <t>黃蜂</t>
+    <t>黄蜂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>神經系統</t>
+    <t>神经系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E8%99%AB%E5%A4%8F%E8%8D%89</t>
@@ -245,19 +245,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E7%A8%AE</t>
   </si>
   <si>
-    <t>絕種</t>
+    <t>绝种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E9%A3%9F%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>草食動物</t>
+    <t>草食动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%89%E9%A3%9F%E6%A4%8D%E7%89%A9</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B7%E5%A5%B6</t>
   </si>
   <si>
-    <t>斷奶</t>
+    <t>断奶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%B1%BB%E7%9B%B8%E9%A3%9F</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E9%A3%9F%E6%80%A7%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>草食性動物</t>
+    <t>草食性动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%8F%B6%E5%8A%A8%E7%89%A9</t>
@@ -353,13 +353,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E8%85%90%E5%8A%A8%E7%89%A9</t>
   </si>
   <si>
-    <t>食腐动物</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9C%E9%A3%9F%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>雜食動物</t>
+    <t>杂食动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E8%82%89%E6%A4%8D%E7%89%A9</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%8D%E6%AA%A2</t>
   </si>
   <si>
-    <t>屍檢</t>
+    <t>尸检</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%91%E6%AD%BB</t>
@@ -401,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%BE%8C%E6%8A%BD%E6%90%90</t>
   </si>
   <si>
-    <t>死後抽搐</t>
+    <t>死后抽搐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B4%E5%BA%8A%E6%AD%BB%E4%BA%A1</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%92%92%E8%B7%AF%E7%8F%BE%E8%B1%A1</t>
   </si>
   <si>
-    <t>拉撒路現象</t>
+    <t>拉撒路现象</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%92%92%E8%B7%AF%E7%BB%BC%E5%90%88%E7%97%87</t>
@@ -449,13 +446,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%99%A8%E5%AE%98%E6%8D%90%E8%B4%88</t>
   </si>
   <si>
-    <t>器官捐贈</t>
+    <t>器官捐赠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E7%97%87</t>
   </si>
   <si>
-    <t>絕症</t>
+    <t>绝症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%9D%E6%AD%BB</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%B9%B4%E9%80%9D%E4%B8%96%E4%BA%BA%E7%89%A9%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>歷年逝世人物列表</t>
+    <t>历年逝世人物列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_unusual_deaths</t>
@@ -545,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%8B%9E%E6%AD%BB</t>
   </si>
   <si>
-    <t>過勞死</t>
+    <t>过劳死</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Legal_death</t>
@@ -581,13 +578,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%94%9F%E5%85%92%E6%AD%BB%E4%BA%A1</t>
   </si>
   <si>
-    <t>新生兒死亡</t>
+    <t>新生儿死亡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%8D%E9%AB%94</t>
   </si>
   <si>
-    <t>屍體</t>
+    <t>尸体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%91%AC</t>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%AB%94%E5%86%B7%E5%87%8D%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>人體冷凍技術</t>
+    <t>人体冷冻技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E8%A7%A3%E4%BD%9C%E7%94%A8</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E9%AB%94%E4%BF%9D%E5%AD%98%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>遺體保存技術</t>
+    <t>遗体保存技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E4%B9%83%E4%BC%8A</t>
@@ -671,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E5%87%8D%E8%91%AC</t>
   </si>
   <si>
-    <t>冷凍葬</t>
+    <t>冷冻葬</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Putrefaction</t>
@@ -689,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%86%E4%B8%96</t>
   </si>
   <si>
-    <t>來世</t>
+    <t>来世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%B8%E4%BD%93%E7%8E%B0%E8%B1%A1</t>
@@ -707,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%B3%E5%A0%B4</t>
   </si>
   <si>
-    <t>墳場</t>
+    <t>坟场</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Consciousness_after_death</t>
@@ -743,7 +740,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AA%E6%85%9F</t>
   </si>
   <si>
-    <t>喪慟</t>
+    <t>丧恸</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Intermediate_state</t>
@@ -755,13 +752,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AA%E4%BA%8B</t>
   </si>
   <si>
-    <t>喪事</t>
+    <t>丧事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB</t>
   </si>
   <si>
-    <t>復活</t>
+    <t>复活</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taboo_on_the_dead</t>
@@ -779,13 +776,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%84%80</t>
   </si>
   <si>
-    <t>吉儀</t>
+    <t>吉仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%83%E5%A2%93</t>
   </si>
   <si>
-    <t>掃墓</t>
+    <t>扫墓</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%A0%E7%A5%AD</t>
@@ -803,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%95%E6%AD%BB%E7%B6%93%E9%A9%97</t>
   </si>
   <si>
-    <t>瀕死經驗</t>
+    <t>濒死经验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Near-death_studies</t>
@@ -815,25 +812,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9B%E9%AD%82%E8%A1%93</t>
   </si>
   <si>
-    <t>招魂術</t>
+    <t>招魂术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E9%AD%82%E5%87%BA%E7%AB%85</t>
   </si>
   <si>
-    <t>靈魂出竅</t>
+    <t>灵魂出窍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E4%B8%96</t>
   </si>
   <si>
-    <t>轉世</t>
+    <t>转世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%AA%E8%BF%B4</t>
   </si>
   <si>
-    <t>輪迴</t>
+    <t>轮回</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E7%A5%9E%E4%BC%9A</t>
@@ -875,13 +872,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%88%91%E6%A1%88%E9%99%AA%E5%AF%A9%E5%9C%98</t>
   </si>
   <si>
-    <t>死刑案陪審團</t>
+    <t>死刑案陪审团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E8%AD%89</t>
   </si>
   <si>
-    <t>死亡證</t>
+    <t>死亡证</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Declared_death_in_absentia</t>
@@ -917,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%80%E6%AE%BA</t>
   </si>
   <si>
-    <t>謀殺</t>
+    <t>谋杀</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Right_to_die</t>
@@ -935,13 +932,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%9B%91</t>
   </si>
   <si>
-    <t>遺囑</t>
+    <t>遗嘱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E5%BB%B6%E7%BA%8C</t>
   </si>
   <si>
-    <t>生命延續</t>
+    <t>生命延续</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Death_and_culture</t>
@@ -989,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%85%E7%B5%95%E7%87%9F</t>
   </si>
   <si>
-    <t>滅絕營</t>
+    <t>灭绝营</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Death_drive</t>
@@ -1103,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%80%E5%B1%8D%E7%99%96</t>
   </si>
   <si>
-    <t>戀屍癖</t>
+    <t>恋尸癖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%BA%E7%89%B2</t>
@@ -1133,7 +1130,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%AE%BA</t>
   </si>
   <si>
-    <t>自殺</t>
+    <t>自杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8F%E5%8A%A9%E8%87%AA%E6%9D%80</t>
@@ -1151,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E5%AD%B8</t>
   </si>
   <si>
-    <t>死亡學</t>
+    <t>死亡学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Thanatosensitivity</t>
@@ -1205,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E8%B3%AA%E5%8C%96%E5%AD%B8%E5%BE%AA%E7%92%B0</t>
   </si>
   <si>
-    <t>生物地質化學循環</t>
+    <t>生物地质化学循环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E9%87%8F</t>
@@ -1355,7 +1352,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E7%87%9F%E9%A4%8A%E9%A1%9E%E5%9E%8B</t>
   </si>
   <si>
-    <t>基本營養類型</t>
+    <t>基本营养类型</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E7%BA%A7%E7%94%9F%E4%BA%A7</t>
@@ -1475,7 +1472,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%94%9F%E7%89%A9%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>微生物生態學</t>
+    <t>微生物生态学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lithoautotroph</t>
@@ -1535,7 +1532,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9%E7%B6%B2</t>
   </si>
   <si>
-    <t>食物網</t>
+    <t>食物网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%94%BE%E5%A4%A7%E4%BD%9C%E7%94%A8</t>
@@ -1553,7 +1550,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%A1%94</t>
   </si>
   <si>
-    <t>生態塔</t>
+    <t>生态塔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Energy_flow_(ecology)</t>
@@ -1565,7 +1562,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9%E9%8F%88</t>
   </si>
   <si>
-    <t>食物鏈</t>
+    <t>食物链</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%B3%89</t>
@@ -1577,7 +1574,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%BA%95%E7%86%B1%E6%B3%89</t>
   </si>
   <si>
-    <t>海底熱泉</t>
+    <t>海底热泉</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Intertidal_ecology</t>
@@ -1613,7 +1610,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B4%AF%E7%A9%8D</t>
   </si>
   <si>
-    <t>生物累積</t>
+    <t>生物累积</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%B6%E6%9E%81%E7%BE%A4%E8%90%BD</t>
@@ -1625,7 +1622,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E6%8E%92%E9%99%A4%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>競爭排除原則</t>
+    <t>竞争排除原则</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ecological_network</t>
@@ -1637,13 +1634,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E6%BC%94%E6%9B%BF</t>
   </si>
   <si>
-    <t>生態演替</t>
+    <t>生态演替</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>能質</t>
+    <t>能质</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Energy_Systems_Language</t>
@@ -1703,7 +1700,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%BD%E8%A3%9D</t>
   </si>
   <si>
-    <t>偽裝</t>
+    <t>伪装</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Plant_defense_against_herbivory</t>
@@ -1715,7 +1712,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%AC%E6%85%8B</t>
   </si>
   <si>
-    <t>擬態</t>
+    <t>拟态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E7%BE%A4%E7%94%9F%E6%80%81%E5%AD%A6</t>
@@ -1751,13 +1748,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%95%88%E7%BE%A4%E9%AB%94%E5%A4%A7%E5%B0%8F</t>
   </si>
   <si>
-    <t>有效群體大小</t>
+    <t>有效群体大小</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E5%85%A7%E7%AB%B6%E7%88%AD</t>
   </si>
   <si>
-    <t>種內競爭</t>
+    <t>种内竞争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Logistic%E5%87%BD%E6%95%B0</t>
@@ -1769,7 +1766,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E8%96%A9%E6%96%AF%E5%A2%9E%E9%95%B7%E6%A8%A1%E5%BC%8F</t>
   </si>
   <si>
-    <t>馬爾薩斯增長模式</t>
+    <t>马尔萨斯增长模式</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Maximum_sustainable_yield</t>
@@ -1787,7 +1784,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%BA%A6%E9%96%8B%E7%99%BC</t>
   </si>
   <si>
-    <t>過度開發</t>
+    <t>过度开发</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Population_cycle</t>
@@ -1817,13 +1814,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%A9%A9%E5%AE%9A%E6%80%A7</t>
   </si>
   <si>
-    <t>生態穩定性</t>
+    <t>生态稳定性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>生物多樣性</t>
+    <t>生物多样性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%BA%A6%E5%88%B6%E7%BA%A6</t>
@@ -1847,7 +1844,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%9C%89%E7%A8%AE</t>
   </si>
   <si>
-    <t>特有種</t>
+    <t>特有种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%97%E8%88%B0%E7%A7%8D</t>
@@ -1871,13 +1868,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BE%86%E7%A8%AE</t>
   </si>
   <si>
-    <t>外來種</t>
+    <t>外来种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>入侵物種</t>
+    <t>入侵物种</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Latitudinal_gradients_in_species_diversity</t>
@@ -1895,7 +1892,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%80%A7%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>中性理論</t>
+    <t>中性理论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Population_viability_analysis</t>
@@ -1931,7 +1928,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%A8%AE%E8%B1%90%E5%AF%8C%E5%BA%A6</t>
   </si>
   <si>
-    <t>物種豐富度</t>
+    <t>物种丰富度</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Species_distribution</t>
@@ -1961,7 +1958,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E9%96%93%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>種間關係</t>
+    <t>种间关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E5%88%A9%E5%85%B1%E7%94%9F</t>
@@ -1997,7 +1994,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物地理學</t>
+    <t>生物地理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ecotype</t>
@@ -2051,13 +2048,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E8%A7%80%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>景觀生態學</t>
+    <t>景观生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E8%A7%80%E6%B5%81%E8%A1%8C%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>景觀流行病學</t>
+    <t>景观流行病学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Landscape_limnology</t>
@@ -2105,7 +2102,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E6%A3%B2%E5%9C%B0</t>
   </si>
   <si>
-    <t>動物棲地</t>
+    <t>动物栖地</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Marine_habitats</t>
@@ -2165,7 +2162,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E8%B5%A4%E5%AD%97</t>
   </si>
   <si>
-    <t>生態赤字</t>
+    <t>生态赤字</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ecological_energetics</t>
@@ -2189,13 +2186,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B3%BB%E7%B5%B1%E5%A4%9A%E6%A8%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>生態系統多樣性</t>
+    <t>生态系统多样性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E7%8F%BE</t>
   </si>
   <si>
-    <t>突現</t>
+    <t>突现</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%8E%B1%E4%BC%AF%E5%AE%9A%E5%BE%8B</t>
@@ -2261,13 +2258,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態經濟學</t>
+    <t>生态经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E8%B6%B3%E8%B7%A1</t>
   </si>
   <si>
-    <t>生態足跡</t>
+    <t>生态足迹</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ecological_forecasting</t>
@@ -2297,7 +2294,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業生態學</t>
+    <t>工业生态学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Macroecology</t>
@@ -2315,7 +2312,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%92%B0%E5%A2%83</t>
   </si>
   <si>
-    <t>自然環境</t>
+    <t>自然环境</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Systems_ecology</t>
@@ -2327,19 +2324,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AB%96%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>理論生態學</t>
+    <t>理论生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4363,7 +4360,7 @@
         <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4389,10 +4386,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4418,10 +4415,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4447,10 +4444,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4476,10 +4473,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>26</v>
@@ -4505,10 +4502,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -4534,10 +4531,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4563,10 +4560,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4592,10 +4589,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4621,10 +4618,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4650,10 +4647,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4679,10 +4676,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4708,10 +4705,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4737,10 +4734,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4766,10 +4763,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4795,10 +4792,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4824,10 +4821,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4853,10 +4850,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4882,10 +4879,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4911,10 +4908,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4940,10 +4937,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4969,10 +4966,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4998,10 +4995,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5027,10 +5024,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5056,10 +5053,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5085,10 +5082,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5114,10 +5111,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5143,10 +5140,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5172,10 +5169,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5201,10 +5198,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5230,10 +5227,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5259,10 +5256,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5288,10 +5285,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5317,10 +5314,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5346,10 +5343,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5375,10 +5372,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5404,10 +5401,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5433,10 +5430,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5462,10 +5459,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5491,10 +5488,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -5520,10 +5517,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5549,10 +5546,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5578,10 +5575,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5607,10 +5604,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5636,10 +5633,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5665,10 +5662,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5694,10 +5691,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5723,10 +5720,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5752,10 +5749,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5781,10 +5778,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -5810,10 +5807,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5839,10 +5836,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5868,10 +5865,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5897,10 +5894,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5926,10 +5923,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5955,10 +5952,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5984,10 +5981,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" t="s">
         <v>223</v>
-      </c>
-      <c r="F114" t="s">
-        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6013,10 +6010,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" t="s">
         <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6042,10 +6039,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" t="s">
         <v>227</v>
-      </c>
-      <c r="F116" t="s">
-        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6071,10 +6068,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>228</v>
+      </c>
+      <c r="F117" t="s">
         <v>229</v>
-      </c>
-      <c r="F117" t="s">
-        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6100,10 +6097,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118" t="s">
         <v>231</v>
-      </c>
-      <c r="F118" t="s">
-        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6129,10 +6126,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" t="s">
         <v>233</v>
-      </c>
-      <c r="F119" t="s">
-        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6158,10 +6155,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>234</v>
+      </c>
+      <c r="F120" t="s">
         <v>235</v>
-      </c>
-      <c r="F120" t="s">
-        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -6187,10 +6184,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>236</v>
+      </c>
+      <c r="F121" t="s">
         <v>237</v>
-      </c>
-      <c r="F121" t="s">
-        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6216,10 +6213,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>238</v>
+      </c>
+      <c r="F122" t="s">
         <v>239</v>
-      </c>
-      <c r="F122" t="s">
-        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6245,10 +6242,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123" t="s">
         <v>241</v>
-      </c>
-      <c r="F123" t="s">
-        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6274,10 +6271,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>242</v>
+      </c>
+      <c r="F124" t="s">
         <v>243</v>
-      </c>
-      <c r="F124" t="s">
-        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6303,10 +6300,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" t="s">
         <v>245</v>
-      </c>
-      <c r="F125" t="s">
-        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6332,10 +6329,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>246</v>
+      </c>
+      <c r="F126" t="s">
         <v>247</v>
-      </c>
-      <c r="F126" t="s">
-        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6361,10 +6358,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>248</v>
+      </c>
+      <c r="F127" t="s">
         <v>249</v>
-      </c>
-      <c r="F127" t="s">
-        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -6390,10 +6387,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>250</v>
+      </c>
+      <c r="F128" t="s">
         <v>251</v>
-      </c>
-      <c r="F128" t="s">
-        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6419,10 +6416,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" t="s">
         <v>253</v>
-      </c>
-      <c r="F129" t="s">
-        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6448,10 +6445,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>254</v>
+      </c>
+      <c r="F130" t="s">
         <v>255</v>
-      </c>
-      <c r="F130" t="s">
-        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6477,10 +6474,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>256</v>
+      </c>
+      <c r="F131" t="s">
         <v>257</v>
-      </c>
-      <c r="F131" t="s">
-        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6506,10 +6503,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>258</v>
+      </c>
+      <c r="F132" t="s">
         <v>259</v>
-      </c>
-      <c r="F132" t="s">
-        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6535,10 +6532,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>260</v>
+      </c>
+      <c r="F133" t="s">
         <v>261</v>
-      </c>
-      <c r="F133" t="s">
-        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6564,10 +6561,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>262</v>
+      </c>
+      <c r="F134" t="s">
         <v>263</v>
-      </c>
-      <c r="F134" t="s">
-        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6593,10 +6590,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>264</v>
+      </c>
+      <c r="F135" t="s">
         <v>265</v>
-      </c>
-      <c r="F135" t="s">
-        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6622,10 +6619,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>266</v>
+      </c>
+      <c r="F136" t="s">
         <v>267</v>
-      </c>
-      <c r="F136" t="s">
-        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6651,10 +6648,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>268</v>
+      </c>
+      <c r="F137" t="s">
         <v>269</v>
-      </c>
-      <c r="F137" t="s">
-        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6680,10 +6677,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>270</v>
+      </c>
+      <c r="F138" t="s">
         <v>271</v>
-      </c>
-      <c r="F138" t="s">
-        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6709,10 +6706,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>272</v>
+      </c>
+      <c r="F139" t="s">
         <v>273</v>
-      </c>
-      <c r="F139" t="s">
-        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6738,10 +6735,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>274</v>
+      </c>
+      <c r="F140" t="s">
         <v>275</v>
-      </c>
-      <c r="F140" t="s">
-        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6767,10 +6764,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
         <v>277</v>
-      </c>
-      <c r="F141" t="s">
-        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6796,10 +6793,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>278</v>
+      </c>
+      <c r="F142" t="s">
         <v>279</v>
-      </c>
-      <c r="F142" t="s">
-        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
@@ -6825,10 +6822,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="F143" t="s">
         <v>281</v>
-      </c>
-      <c r="F143" t="s">
-        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>4</v>
@@ -6854,10 +6851,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
         <v>283</v>
-      </c>
-      <c r="F144" t="s">
-        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6883,10 +6880,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6912,10 +6909,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>286</v>
+      </c>
+      <c r="F146" t="s">
         <v>287</v>
-      </c>
-      <c r="F146" t="s">
-        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6941,10 +6938,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F147" t="s">
         <v>289</v>
-      </c>
-      <c r="F147" t="s">
-        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6970,10 +6967,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>290</v>
+      </c>
+      <c r="F148" t="s">
         <v>291</v>
-      </c>
-      <c r="F148" t="s">
-        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6999,10 +6996,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>292</v>
+      </c>
+      <c r="F149" t="s">
         <v>293</v>
-      </c>
-      <c r="F149" t="s">
-        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7028,10 +7025,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>294</v>
+      </c>
+      <c r="F150" t="s">
         <v>295</v>
-      </c>
-      <c r="F150" t="s">
-        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7057,10 +7054,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>296</v>
+      </c>
+      <c r="F151" t="s">
         <v>297</v>
-      </c>
-      <c r="F151" t="s">
-        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7086,10 +7083,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>298</v>
+      </c>
+      <c r="F152" t="s">
         <v>299</v>
-      </c>
-      <c r="F152" t="s">
-        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7115,10 +7112,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>300</v>
+      </c>
+      <c r="F153" t="s">
         <v>301</v>
-      </c>
-      <c r="F153" t="s">
-        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7144,10 +7141,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>302</v>
+      </c>
+      <c r="F154" t="s">
         <v>303</v>
-      </c>
-      <c r="F154" t="s">
-        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7173,10 +7170,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>304</v>
+      </c>
+      <c r="F155" t="s">
         <v>305</v>
-      </c>
-      <c r="F155" t="s">
-        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7202,10 +7199,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>306</v>
+      </c>
+      <c r="F156" t="s">
         <v>307</v>
-      </c>
-      <c r="F156" t="s">
-        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7231,10 +7228,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>308</v>
+      </c>
+      <c r="F157" t="s">
         <v>309</v>
-      </c>
-      <c r="F157" t="s">
-        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7260,10 +7257,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>310</v>
+      </c>
+      <c r="F158" t="s">
         <v>311</v>
-      </c>
-      <c r="F158" t="s">
-        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7289,10 +7286,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>312</v>
+      </c>
+      <c r="F159" t="s">
         <v>313</v>
-      </c>
-      <c r="F159" t="s">
-        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -7318,10 +7315,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>314</v>
+      </c>
+      <c r="F160" t="s">
         <v>315</v>
-      </c>
-      <c r="F160" t="s">
-        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7347,10 +7344,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>316</v>
+      </c>
+      <c r="F161" t="s">
         <v>317</v>
-      </c>
-      <c r="F161" t="s">
-        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7376,10 +7373,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>318</v>
+      </c>
+      <c r="F162" t="s">
         <v>319</v>
-      </c>
-      <c r="F162" t="s">
-        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7405,10 +7402,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>320</v>
+      </c>
+      <c r="F163" t="s">
         <v>321</v>
-      </c>
-      <c r="F163" t="s">
-        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7434,10 +7431,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>322</v>
+      </c>
+      <c r="F164" t="s">
         <v>323</v>
-      </c>
-      <c r="F164" t="s">
-        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7463,10 +7460,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" t="s">
         <v>325</v>
-      </c>
-      <c r="F165" t="s">
-        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7492,10 +7489,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>326</v>
+      </c>
+      <c r="F166" t="s">
         <v>327</v>
-      </c>
-      <c r="F166" t="s">
-        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7521,10 +7518,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>328</v>
+      </c>
+      <c r="F167" t="s">
         <v>329</v>
-      </c>
-      <c r="F167" t="s">
-        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7550,10 +7547,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>330</v>
+      </c>
+      <c r="F168" t="s">
         <v>331</v>
-      </c>
-      <c r="F168" t="s">
-        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7579,10 +7576,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>332</v>
+      </c>
+      <c r="F169" t="s">
         <v>333</v>
-      </c>
-      <c r="F169" t="s">
-        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7608,10 +7605,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>334</v>
+      </c>
+      <c r="F170" t="s">
         <v>335</v>
-      </c>
-      <c r="F170" t="s">
-        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7637,10 +7634,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>336</v>
+      </c>
+      <c r="F171" t="s">
         <v>337</v>
-      </c>
-      <c r="F171" t="s">
-        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7666,10 +7663,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>338</v>
+      </c>
+      <c r="F172" t="s">
         <v>339</v>
-      </c>
-      <c r="F172" t="s">
-        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7695,10 +7692,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>340</v>
+      </c>
+      <c r="F173" t="s">
         <v>341</v>
-      </c>
-      <c r="F173" t="s">
-        <v>342</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7724,10 +7721,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>342</v>
+      </c>
+      <c r="F174" t="s">
         <v>343</v>
-      </c>
-      <c r="F174" t="s">
-        <v>344</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -7753,10 +7750,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>344</v>
+      </c>
+      <c r="F175" t="s">
         <v>345</v>
-      </c>
-      <c r="F175" t="s">
-        <v>346</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7782,10 +7779,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>346</v>
+      </c>
+      <c r="F176" t="s">
         <v>347</v>
-      </c>
-      <c r="F176" t="s">
-        <v>348</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7811,10 +7808,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>348</v>
+      </c>
+      <c r="F177" t="s">
         <v>349</v>
-      </c>
-      <c r="F177" t="s">
-        <v>350</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7840,10 +7837,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>350</v>
+      </c>
+      <c r="F178" t="s">
         <v>351</v>
-      </c>
-      <c r="F178" t="s">
-        <v>352</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7869,10 +7866,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>352</v>
+      </c>
+      <c r="F179" t="s">
         <v>353</v>
-      </c>
-      <c r="F179" t="s">
-        <v>354</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7898,10 +7895,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>354</v>
+      </c>
+      <c r="F180" t="s">
         <v>355</v>
-      </c>
-      <c r="F180" t="s">
-        <v>356</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7927,10 +7924,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>356</v>
+      </c>
+      <c r="F181" t="s">
         <v>357</v>
-      </c>
-      <c r="F181" t="s">
-        <v>358</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -7956,10 +7953,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>358</v>
+      </c>
+      <c r="F182" t="s">
         <v>359</v>
-      </c>
-      <c r="F182" t="s">
-        <v>360</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7985,10 +7982,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>360</v>
+      </c>
+      <c r="F183" t="s">
         <v>361</v>
-      </c>
-      <c r="F183" t="s">
-        <v>362</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8014,10 +8011,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>362</v>
+      </c>
+      <c r="F184" t="s">
         <v>363</v>
-      </c>
-      <c r="F184" t="s">
-        <v>364</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8043,10 +8040,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>364</v>
+      </c>
+      <c r="F185" t="s">
         <v>365</v>
-      </c>
-      <c r="F185" t="s">
-        <v>366</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8072,10 +8069,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>366</v>
+      </c>
+      <c r="F186" t="s">
         <v>367</v>
-      </c>
-      <c r="F186" t="s">
-        <v>368</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8101,10 +8098,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>368</v>
+      </c>
+      <c r="F187" t="s">
         <v>369</v>
-      </c>
-      <c r="F187" t="s">
-        <v>370</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -8130,10 +8127,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>370</v>
+      </c>
+      <c r="F188" t="s">
         <v>371</v>
-      </c>
-      <c r="F188" t="s">
-        <v>372</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8159,10 +8156,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>372</v>
+      </c>
+      <c r="F189" t="s">
         <v>373</v>
-      </c>
-      <c r="F189" t="s">
-        <v>374</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8188,10 +8185,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>374</v>
+      </c>
+      <c r="F190" t="s">
         <v>375</v>
-      </c>
-      <c r="F190" t="s">
-        <v>376</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -8217,10 +8214,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>376</v>
+      </c>
+      <c r="F191" t="s">
         <v>377</v>
-      </c>
-      <c r="F191" t="s">
-        <v>378</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8246,10 +8243,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>378</v>
+      </c>
+      <c r="F192" t="s">
         <v>379</v>
-      </c>
-      <c r="F192" t="s">
-        <v>380</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -8275,10 +8272,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>380</v>
+      </c>
+      <c r="F193" t="s">
         <v>381</v>
-      </c>
-      <c r="F193" t="s">
-        <v>382</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8304,10 +8301,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>382</v>
+      </c>
+      <c r="F194" t="s">
         <v>383</v>
-      </c>
-      <c r="F194" t="s">
-        <v>384</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8333,10 +8330,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>384</v>
+      </c>
+      <c r="F195" t="s">
         <v>385</v>
-      </c>
-      <c r="F195" t="s">
-        <v>386</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8362,10 +8359,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>386</v>
+      </c>
+      <c r="F196" t="s">
         <v>387</v>
-      </c>
-      <c r="F196" t="s">
-        <v>388</v>
       </c>
       <c r="G196" t="n">
         <v>7</v>
@@ -8420,10 +8417,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>388</v>
+      </c>
+      <c r="F198" t="s">
         <v>389</v>
-      </c>
-      <c r="F198" t="s">
-        <v>390</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8449,10 +8446,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>390</v>
+      </c>
+      <c r="F199" t="s">
         <v>391</v>
-      </c>
-      <c r="F199" t="s">
-        <v>392</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8478,10 +8475,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>392</v>
+      </c>
+      <c r="F200" t="s">
         <v>393</v>
-      </c>
-      <c r="F200" t="s">
-        <v>394</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8507,10 +8504,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>394</v>
+      </c>
+      <c r="F201" t="s">
         <v>395</v>
-      </c>
-      <c r="F201" t="s">
-        <v>396</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8536,10 +8533,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>396</v>
+      </c>
+      <c r="F202" t="s">
         <v>397</v>
-      </c>
-      <c r="F202" t="s">
-        <v>398</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8565,10 +8562,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>398</v>
+      </c>
+      <c r="F203" t="s">
         <v>399</v>
-      </c>
-      <c r="F203" t="s">
-        <v>400</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8594,10 +8591,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>400</v>
+      </c>
+      <c r="F204" t="s">
         <v>401</v>
-      </c>
-      <c r="F204" t="s">
-        <v>402</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8623,10 +8620,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>402</v>
+      </c>
+      <c r="F205" t="s">
         <v>403</v>
-      </c>
-      <c r="F205" t="s">
-        <v>404</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8652,10 +8649,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>404</v>
+      </c>
+      <c r="F206" t="s">
         <v>405</v>
-      </c>
-      <c r="F206" t="s">
-        <v>406</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8681,10 +8678,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>406</v>
+      </c>
+      <c r="F207" t="s">
         <v>407</v>
-      </c>
-      <c r="F207" t="s">
-        <v>408</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8710,10 +8707,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>408</v>
+      </c>
+      <c r="F208" t="s">
         <v>409</v>
-      </c>
-      <c r="F208" t="s">
-        <v>410</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8739,10 +8736,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>410</v>
+      </c>
+      <c r="F209" t="s">
         <v>411</v>
-      </c>
-      <c r="F209" t="s">
-        <v>412</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8768,10 +8765,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>412</v>
+      </c>
+      <c r="F210" t="s">
         <v>413</v>
-      </c>
-      <c r="F210" t="s">
-        <v>414</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8797,10 +8794,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>414</v>
+      </c>
+      <c r="F211" t="s">
         <v>415</v>
-      </c>
-      <c r="F211" t="s">
-        <v>416</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8826,10 +8823,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>416</v>
+      </c>
+      <c r="F212" t="s">
         <v>417</v>
-      </c>
-      <c r="F212" t="s">
-        <v>418</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8855,10 +8852,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>418</v>
+      </c>
+      <c r="F213" t="s">
         <v>419</v>
-      </c>
-      <c r="F213" t="s">
-        <v>420</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8884,10 +8881,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>420</v>
+      </c>
+      <c r="F214" t="s">
         <v>421</v>
-      </c>
-      <c r="F214" t="s">
-        <v>422</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8913,10 +8910,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>422</v>
+      </c>
+      <c r="F215" t="s">
         <v>423</v>
-      </c>
-      <c r="F215" t="s">
-        <v>424</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8942,10 +8939,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>424</v>
+      </c>
+      <c r="F216" t="s">
         <v>425</v>
-      </c>
-      <c r="F216" t="s">
-        <v>426</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8971,10 +8968,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>426</v>
+      </c>
+      <c r="F217" t="s">
         <v>427</v>
-      </c>
-      <c r="F217" t="s">
-        <v>428</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9000,10 +8997,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>428</v>
+      </c>
+      <c r="F218" t="s">
         <v>429</v>
-      </c>
-      <c r="F218" t="s">
-        <v>430</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9029,10 +9026,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>430</v>
+      </c>
+      <c r="F219" t="s">
         <v>431</v>
-      </c>
-      <c r="F219" t="s">
-        <v>432</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9058,10 +9055,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>432</v>
+      </c>
+      <c r="F220" t="s">
         <v>433</v>
-      </c>
-      <c r="F220" t="s">
-        <v>434</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9087,10 +9084,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>434</v>
+      </c>
+      <c r="F221" t="s">
         <v>435</v>
-      </c>
-      <c r="F221" t="s">
-        <v>436</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9116,10 +9113,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>436</v>
+      </c>
+      <c r="F222" t="s">
         <v>437</v>
-      </c>
-      <c r="F222" t="s">
-        <v>438</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9145,10 +9142,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>438</v>
+      </c>
+      <c r="F223" t="s">
         <v>439</v>
-      </c>
-      <c r="F223" t="s">
-        <v>440</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9174,10 +9171,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>440</v>
+      </c>
+      <c r="F224" t="s">
         <v>441</v>
-      </c>
-      <c r="F224" t="s">
-        <v>442</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9203,10 +9200,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>442</v>
+      </c>
+      <c r="F225" t="s">
         <v>443</v>
-      </c>
-      <c r="F225" t="s">
-        <v>444</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9232,10 +9229,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>444</v>
+      </c>
+      <c r="F226" t="s">
         <v>445</v>
-      </c>
-      <c r="F226" t="s">
-        <v>446</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9261,10 +9258,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>446</v>
+      </c>
+      <c r="F227" t="s">
         <v>447</v>
-      </c>
-      <c r="F227" t="s">
-        <v>448</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9290,10 +9287,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>448</v>
+      </c>
+      <c r="F228" t="s">
         <v>449</v>
-      </c>
-      <c r="F228" t="s">
-        <v>450</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9319,10 +9316,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>450</v>
+      </c>
+      <c r="F229" t="s">
         <v>451</v>
-      </c>
-      <c r="F229" t="s">
-        <v>452</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9348,10 +9345,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>452</v>
+      </c>
+      <c r="F230" t="s">
         <v>453</v>
-      </c>
-      <c r="F230" t="s">
-        <v>454</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9377,10 +9374,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>454</v>
+      </c>
+      <c r="F231" t="s">
         <v>455</v>
-      </c>
-      <c r="F231" t="s">
-        <v>456</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9406,10 +9403,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>456</v>
+      </c>
+      <c r="F232" t="s">
         <v>457</v>
-      </c>
-      <c r="F232" t="s">
-        <v>458</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -9435,10 +9432,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>458</v>
+      </c>
+      <c r="F233" t="s">
         <v>459</v>
-      </c>
-      <c r="F233" t="s">
-        <v>460</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9464,10 +9461,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>460</v>
+      </c>
+      <c r="F234" t="s">
         <v>461</v>
-      </c>
-      <c r="F234" t="s">
-        <v>462</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9522,10 +9519,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>462</v>
+      </c>
+      <c r="F236" t="s">
         <v>463</v>
-      </c>
-      <c r="F236" t="s">
-        <v>464</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9551,10 +9548,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>464</v>
+      </c>
+      <c r="F237" t="s">
         <v>465</v>
-      </c>
-      <c r="F237" t="s">
-        <v>466</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9580,10 +9577,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>466</v>
+      </c>
+      <c r="F238" t="s">
         <v>467</v>
-      </c>
-      <c r="F238" t="s">
-        <v>468</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9609,10 +9606,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>112</v>
+      </c>
+      <c r="F239" t="s">
         <v>113</v>
-      </c>
-      <c r="F239" t="s">
-        <v>114</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9638,10 +9635,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>468</v>
+      </c>
+      <c r="F240" t="s">
         <v>469</v>
-      </c>
-      <c r="F240" t="s">
-        <v>470</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9667,10 +9664,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>470</v>
+      </c>
+      <c r="F241" t="s">
         <v>471</v>
-      </c>
-      <c r="F241" t="s">
-        <v>472</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9696,10 +9693,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>472</v>
+      </c>
+      <c r="F242" t="s">
         <v>473</v>
-      </c>
-      <c r="F242" t="s">
-        <v>474</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9725,10 +9722,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>474</v>
+      </c>
+      <c r="F243" t="s">
         <v>475</v>
-      </c>
-      <c r="F243" t="s">
-        <v>476</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9754,10 +9751,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>476</v>
+      </c>
+      <c r="F244" t="s">
         <v>477</v>
-      </c>
-      <c r="F244" t="s">
-        <v>478</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9783,10 +9780,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>478</v>
+      </c>
+      <c r="F245" t="s">
         <v>479</v>
-      </c>
-      <c r="F245" t="s">
-        <v>480</v>
       </c>
       <c r="G245" t="n">
         <v>6</v>
@@ -9812,10 +9809,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>480</v>
+      </c>
+      <c r="F246" t="s">
         <v>481</v>
-      </c>
-      <c r="F246" t="s">
-        <v>482</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9841,10 +9838,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>482</v>
+      </c>
+      <c r="F247" t="s">
         <v>483</v>
-      </c>
-      <c r="F247" t="s">
-        <v>484</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9870,10 +9867,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>484</v>
+      </c>
+      <c r="F248" t="s">
         <v>485</v>
-      </c>
-      <c r="F248" t="s">
-        <v>486</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9899,10 +9896,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>486</v>
+      </c>
+      <c r="F249" t="s">
         <v>487</v>
-      </c>
-      <c r="F249" t="s">
-        <v>488</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9928,10 +9925,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>488</v>
+      </c>
+      <c r="F250" t="s">
         <v>489</v>
-      </c>
-      <c r="F250" t="s">
-        <v>490</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9957,10 +9954,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>490</v>
+      </c>
+      <c r="F251" t="s">
         <v>491</v>
-      </c>
-      <c r="F251" t="s">
-        <v>492</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9986,10 +9983,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>492</v>
+      </c>
+      <c r="F252" t="s">
         <v>493</v>
-      </c>
-      <c r="F252" t="s">
-        <v>494</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10015,10 +10012,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>494</v>
+      </c>
+      <c r="F253" t="s">
         <v>495</v>
-      </c>
-      <c r="F253" t="s">
-        <v>496</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10044,10 +10041,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>496</v>
+      </c>
+      <c r="F254" t="s">
         <v>497</v>
-      </c>
-      <c r="F254" t="s">
-        <v>498</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10073,10 +10070,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>498</v>
+      </c>
+      <c r="F255" t="s">
         <v>499</v>
-      </c>
-      <c r="F255" t="s">
-        <v>500</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10102,10 +10099,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>500</v>
+      </c>
+      <c r="F256" t="s">
         <v>501</v>
-      </c>
-      <c r="F256" t="s">
-        <v>502</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10131,10 +10128,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>502</v>
+      </c>
+      <c r="F257" t="s">
         <v>503</v>
-      </c>
-      <c r="F257" t="s">
-        <v>504</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10160,10 +10157,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>504</v>
+      </c>
+      <c r="F258" t="s">
         <v>505</v>
-      </c>
-      <c r="F258" t="s">
-        <v>506</v>
       </c>
       <c r="G258" t="n">
         <v>3</v>
@@ -10189,10 +10186,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>506</v>
+      </c>
+      <c r="F259" t="s">
         <v>507</v>
-      </c>
-      <c r="F259" t="s">
-        <v>508</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10218,10 +10215,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>508</v>
+      </c>
+      <c r="F260" t="s">
         <v>509</v>
-      </c>
-      <c r="F260" t="s">
-        <v>510</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10247,10 +10244,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>510</v>
+      </c>
+      <c r="F261" t="s">
         <v>511</v>
-      </c>
-      <c r="F261" t="s">
-        <v>512</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10276,10 +10273,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>512</v>
+      </c>
+      <c r="F262" t="s">
         <v>513</v>
-      </c>
-      <c r="F262" t="s">
-        <v>514</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10305,10 +10302,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>514</v>
+      </c>
+      <c r="F263" t="s">
         <v>515</v>
-      </c>
-      <c r="F263" t="s">
-        <v>516</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10334,10 +10331,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>516</v>
+      </c>
+      <c r="F264" t="s">
         <v>517</v>
-      </c>
-      <c r="F264" t="s">
-        <v>518</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10363,10 +10360,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>518</v>
+      </c>
+      <c r="F265" t="s">
         <v>519</v>
-      </c>
-      <c r="F265" t="s">
-        <v>520</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10392,10 +10389,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>520</v>
+      </c>
+      <c r="F266" t="s">
         <v>521</v>
-      </c>
-      <c r="F266" t="s">
-        <v>522</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10421,10 +10418,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>522</v>
+      </c>
+      <c r="F267" t="s">
         <v>523</v>
-      </c>
-      <c r="F267" t="s">
-        <v>524</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10450,10 +10447,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>524</v>
+      </c>
+      <c r="F268" t="s">
         <v>525</v>
-      </c>
-      <c r="F268" t="s">
-        <v>526</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10479,10 +10476,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>526</v>
+      </c>
+      <c r="F269" t="s">
         <v>527</v>
-      </c>
-      <c r="F269" t="s">
-        <v>528</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10508,10 +10505,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>528</v>
+      </c>
+      <c r="F270" t="s">
         <v>529</v>
-      </c>
-      <c r="F270" t="s">
-        <v>530</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10537,10 +10534,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>530</v>
+      </c>
+      <c r="F271" t="s">
         <v>531</v>
-      </c>
-      <c r="F271" t="s">
-        <v>532</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10566,10 +10563,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>532</v>
+      </c>
+      <c r="F272" t="s">
         <v>533</v>
-      </c>
-      <c r="F272" t="s">
-        <v>534</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10595,10 +10592,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>534</v>
+      </c>
+      <c r="F273" t="s">
         <v>535</v>
-      </c>
-      <c r="F273" t="s">
-        <v>536</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10624,10 +10621,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>536</v>
+      </c>
+      <c r="F274" t="s">
         <v>537</v>
-      </c>
-      <c r="F274" t="s">
-        <v>538</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10653,10 +10650,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>538</v>
+      </c>
+      <c r="F275" t="s">
         <v>539</v>
-      </c>
-      <c r="F275" t="s">
-        <v>540</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10682,10 +10679,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>540</v>
+      </c>
+      <c r="F276" t="s">
         <v>541</v>
-      </c>
-      <c r="F276" t="s">
-        <v>542</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10711,10 +10708,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>542</v>
+      </c>
+      <c r="F277" t="s">
         <v>543</v>
-      </c>
-      <c r="F277" t="s">
-        <v>544</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10740,10 +10737,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>544</v>
+      </c>
+      <c r="F278" t="s">
         <v>545</v>
-      </c>
-      <c r="F278" t="s">
-        <v>546</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10769,10 +10766,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>546</v>
+      </c>
+      <c r="F279" t="s">
         <v>547</v>
-      </c>
-      <c r="F279" t="s">
-        <v>548</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10798,10 +10795,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>548</v>
+      </c>
+      <c r="F280" t="s">
         <v>549</v>
-      </c>
-      <c r="F280" t="s">
-        <v>550</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10827,10 +10824,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>550</v>
+      </c>
+      <c r="F281" t="s">
         <v>551</v>
-      </c>
-      <c r="F281" t="s">
-        <v>552</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10856,10 +10853,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>552</v>
+      </c>
+      <c r="F282" t="s">
         <v>553</v>
-      </c>
-      <c r="F282" t="s">
-        <v>554</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10885,10 +10882,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>554</v>
+      </c>
+      <c r="F283" t="s">
         <v>555</v>
-      </c>
-      <c r="F283" t="s">
-        <v>556</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10914,10 +10911,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>556</v>
+      </c>
+      <c r="F284" t="s">
         <v>557</v>
-      </c>
-      <c r="F284" t="s">
-        <v>558</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10943,10 +10940,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>558</v>
+      </c>
+      <c r="F285" t="s">
         <v>559</v>
-      </c>
-      <c r="F285" t="s">
-        <v>560</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10972,10 +10969,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>560</v>
+      </c>
+      <c r="F286" t="s">
         <v>561</v>
-      </c>
-      <c r="F286" t="s">
-        <v>562</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11001,10 +10998,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>562</v>
+      </c>
+      <c r="F287" t="s">
         <v>563</v>
-      </c>
-      <c r="F287" t="s">
-        <v>564</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11030,10 +11027,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>564</v>
+      </c>
+      <c r="F288" t="s">
         <v>565</v>
-      </c>
-      <c r="F288" t="s">
-        <v>566</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11059,10 +11056,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>566</v>
+      </c>
+      <c r="F289" t="s">
         <v>567</v>
-      </c>
-      <c r="F289" t="s">
-        <v>568</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11088,10 +11085,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>568</v>
+      </c>
+      <c r="F290" t="s">
         <v>569</v>
-      </c>
-      <c r="F290" t="s">
-        <v>570</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11117,10 +11114,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>570</v>
+      </c>
+      <c r="F291" t="s">
         <v>571</v>
-      </c>
-      <c r="F291" t="s">
-        <v>572</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11146,10 +11143,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>572</v>
+      </c>
+      <c r="F292" t="s">
         <v>573</v>
-      </c>
-      <c r="F292" t="s">
-        <v>574</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11175,10 +11172,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>574</v>
+      </c>
+      <c r="F293" t="s">
         <v>575</v>
-      </c>
-      <c r="F293" t="s">
-        <v>576</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11204,10 +11201,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>576</v>
+      </c>
+      <c r="F294" t="s">
         <v>577</v>
-      </c>
-      <c r="F294" t="s">
-        <v>578</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11233,10 +11230,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>578</v>
+      </c>
+      <c r="F295" t="s">
         <v>579</v>
-      </c>
-      <c r="F295" t="s">
-        <v>580</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11262,10 +11259,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>580</v>
+      </c>
+      <c r="F296" t="s">
         <v>581</v>
-      </c>
-      <c r="F296" t="s">
-        <v>582</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11291,10 +11288,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>582</v>
+      </c>
+      <c r="F297" t="s">
         <v>583</v>
-      </c>
-      <c r="F297" t="s">
-        <v>584</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11320,10 +11317,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>584</v>
+      </c>
+      <c r="F298" t="s">
         <v>585</v>
-      </c>
-      <c r="F298" t="s">
-        <v>586</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11349,10 +11346,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>586</v>
+      </c>
+      <c r="F299" t="s">
         <v>587</v>
-      </c>
-      <c r="F299" t="s">
-        <v>588</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11378,10 +11375,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>588</v>
+      </c>
+      <c r="F300" t="s">
         <v>589</v>
-      </c>
-      <c r="F300" t="s">
-        <v>590</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11407,10 +11404,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
+        <v>590</v>
+      </c>
+      <c r="F301" t="s">
         <v>591</v>
-      </c>
-      <c r="F301" t="s">
-        <v>592</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11436,10 +11433,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>592</v>
+      </c>
+      <c r="F302" t="s">
         <v>593</v>
-      </c>
-      <c r="F302" t="s">
-        <v>594</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11465,10 +11462,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
+        <v>594</v>
+      </c>
+      <c r="F303" t="s">
         <v>595</v>
-      </c>
-      <c r="F303" t="s">
-        <v>596</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11494,10 +11491,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
+        <v>596</v>
+      </c>
+      <c r="F304" t="s">
         <v>597</v>
-      </c>
-      <c r="F304" t="s">
-        <v>598</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11523,10 +11520,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
+        <v>598</v>
+      </c>
+      <c r="F305" t="s">
         <v>599</v>
-      </c>
-      <c r="F305" t="s">
-        <v>600</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11552,10 +11549,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>600</v>
+      </c>
+      <c r="F306" t="s">
         <v>601</v>
-      </c>
-      <c r="F306" t="s">
-        <v>602</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11581,10 +11578,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>602</v>
+      </c>
+      <c r="F307" t="s">
         <v>603</v>
-      </c>
-      <c r="F307" t="s">
-        <v>604</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11610,10 +11607,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
+        <v>604</v>
+      </c>
+      <c r="F308" t="s">
         <v>605</v>
-      </c>
-      <c r="F308" t="s">
-        <v>606</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11639,10 +11636,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
+        <v>606</v>
+      </c>
+      <c r="F309" t="s">
         <v>607</v>
-      </c>
-      <c r="F309" t="s">
-        <v>608</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11668,10 +11665,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
+        <v>608</v>
+      </c>
+      <c r="F310" t="s">
         <v>609</v>
-      </c>
-      <c r="F310" t="s">
-        <v>610</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11697,10 +11694,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
+        <v>610</v>
+      </c>
+      <c r="F311" t="s">
         <v>611</v>
-      </c>
-      <c r="F311" t="s">
-        <v>612</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11726,10 +11723,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
+        <v>612</v>
+      </c>
+      <c r="F312" t="s">
         <v>613</v>
-      </c>
-      <c r="F312" t="s">
-        <v>614</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11755,10 +11752,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
+        <v>614</v>
+      </c>
+      <c r="F313" t="s">
         <v>615</v>
-      </c>
-      <c r="F313" t="s">
-        <v>616</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11784,10 +11781,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
+        <v>616</v>
+      </c>
+      <c r="F314" t="s">
         <v>617</v>
-      </c>
-      <c r="F314" t="s">
-        <v>618</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11813,10 +11810,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
+        <v>618</v>
+      </c>
+      <c r="F315" t="s">
         <v>619</v>
-      </c>
-      <c r="F315" t="s">
-        <v>620</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11842,10 +11839,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
+        <v>620</v>
+      </c>
+      <c r="F316" t="s">
         <v>621</v>
-      </c>
-      <c r="F316" t="s">
-        <v>622</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11871,10 +11868,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
+        <v>622</v>
+      </c>
+      <c r="F317" t="s">
         <v>623</v>
-      </c>
-      <c r="F317" t="s">
-        <v>624</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11900,10 +11897,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
+        <v>624</v>
+      </c>
+      <c r="F318" t="s">
         <v>625</v>
-      </c>
-      <c r="F318" t="s">
-        <v>626</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11929,10 +11926,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
+        <v>626</v>
+      </c>
+      <c r="F319" t="s">
         <v>627</v>
-      </c>
-      <c r="F319" t="s">
-        <v>628</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11958,10 +11955,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
+        <v>628</v>
+      </c>
+      <c r="F320" t="s">
         <v>629</v>
-      </c>
-      <c r="F320" t="s">
-        <v>630</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11987,10 +11984,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
+        <v>630</v>
+      </c>
+      <c r="F321" t="s">
         <v>631</v>
-      </c>
-      <c r="F321" t="s">
-        <v>632</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12016,10 +12013,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
+        <v>632</v>
+      </c>
+      <c r="F322" t="s">
         <v>633</v>
-      </c>
-      <c r="F322" t="s">
-        <v>634</v>
       </c>
       <c r="G322" t="n">
         <v>3</v>
@@ -12045,10 +12042,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
+        <v>634</v>
+      </c>
+      <c r="F323" t="s">
         <v>635</v>
-      </c>
-      <c r="F323" t="s">
-        <v>636</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12074,10 +12071,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
+        <v>636</v>
+      </c>
+      <c r="F324" t="s">
         <v>637</v>
-      </c>
-      <c r="F324" t="s">
-        <v>638</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12103,10 +12100,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
+        <v>638</v>
+      </c>
+      <c r="F325" t="s">
         <v>639</v>
-      </c>
-      <c r="F325" t="s">
-        <v>640</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12132,10 +12129,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
+        <v>640</v>
+      </c>
+      <c r="F326" t="s">
         <v>641</v>
-      </c>
-      <c r="F326" t="s">
-        <v>642</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12161,10 +12158,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
+        <v>642</v>
+      </c>
+      <c r="F327" t="s">
         <v>643</v>
-      </c>
-      <c r="F327" t="s">
-        <v>644</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12190,10 +12187,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
+        <v>644</v>
+      </c>
+      <c r="F328" t="s">
         <v>645</v>
-      </c>
-      <c r="F328" t="s">
-        <v>646</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12219,10 +12216,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
+        <v>646</v>
+      </c>
+      <c r="F329" t="s">
         <v>647</v>
-      </c>
-      <c r="F329" t="s">
-        <v>648</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -12248,10 +12245,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
+        <v>648</v>
+      </c>
+      <c r="F330" t="s">
         <v>649</v>
-      </c>
-      <c r="F330" t="s">
-        <v>650</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12277,10 +12274,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
+        <v>650</v>
+      </c>
+      <c r="F331" t="s">
         <v>651</v>
-      </c>
-      <c r="F331" t="s">
-        <v>652</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12306,10 +12303,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
+        <v>652</v>
+      </c>
+      <c r="F332" t="s">
         <v>653</v>
-      </c>
-      <c r="F332" t="s">
-        <v>654</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12335,10 +12332,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
+        <v>654</v>
+      </c>
+      <c r="F333" t="s">
         <v>655</v>
-      </c>
-      <c r="F333" t="s">
-        <v>656</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12364,10 +12361,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
+        <v>656</v>
+      </c>
+      <c r="F334" t="s">
         <v>657</v>
-      </c>
-      <c r="F334" t="s">
-        <v>658</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12393,10 +12390,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
+        <v>658</v>
+      </c>
+      <c r="F335" t="s">
         <v>659</v>
-      </c>
-      <c r="F335" t="s">
-        <v>660</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -12422,10 +12419,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
+        <v>660</v>
+      </c>
+      <c r="F336" t="s">
         <v>661</v>
-      </c>
-      <c r="F336" t="s">
-        <v>662</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12451,10 +12448,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
+        <v>662</v>
+      </c>
+      <c r="F337" t="s">
         <v>663</v>
-      </c>
-      <c r="F337" t="s">
-        <v>664</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12480,10 +12477,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
+        <v>664</v>
+      </c>
+      <c r="F338" t="s">
         <v>665</v>
-      </c>
-      <c r="F338" t="s">
-        <v>666</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12509,10 +12506,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
+        <v>666</v>
+      </c>
+      <c r="F339" t="s">
         <v>667</v>
-      </c>
-      <c r="F339" t="s">
-        <v>668</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12538,10 +12535,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
+        <v>668</v>
+      </c>
+      <c r="F340" t="s">
         <v>669</v>
-      </c>
-      <c r="F340" t="s">
-        <v>670</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12567,10 +12564,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
+        <v>670</v>
+      </c>
+      <c r="F341" t="s">
         <v>671</v>
-      </c>
-      <c r="F341" t="s">
-        <v>672</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12596,10 +12593,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
+        <v>672</v>
+      </c>
+      <c r="F342" t="s">
         <v>673</v>
-      </c>
-      <c r="F342" t="s">
-        <v>674</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12625,10 +12622,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
+        <v>674</v>
+      </c>
+      <c r="F343" t="s">
         <v>675</v>
-      </c>
-      <c r="F343" t="s">
-        <v>676</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12654,10 +12651,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
+        <v>676</v>
+      </c>
+      <c r="F344" t="s">
         <v>677</v>
-      </c>
-      <c r="F344" t="s">
-        <v>678</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12683,10 +12680,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
+        <v>678</v>
+      </c>
+      <c r="F345" t="s">
         <v>679</v>
-      </c>
-      <c r="F345" t="s">
-        <v>680</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12712,10 +12709,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
+        <v>680</v>
+      </c>
+      <c r="F346" t="s">
         <v>681</v>
-      </c>
-      <c r="F346" t="s">
-        <v>682</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12741,10 +12738,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
+        <v>682</v>
+      </c>
+      <c r="F347" t="s">
         <v>683</v>
-      </c>
-      <c r="F347" t="s">
-        <v>684</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12770,10 +12767,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
+        <v>684</v>
+      </c>
+      <c r="F348" t="s">
         <v>685</v>
-      </c>
-      <c r="F348" t="s">
-        <v>686</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12799,10 +12796,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
+        <v>686</v>
+      </c>
+      <c r="F349" t="s">
         <v>687</v>
-      </c>
-      <c r="F349" t="s">
-        <v>688</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12828,10 +12825,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
+        <v>688</v>
+      </c>
+      <c r="F350" t="s">
         <v>689</v>
-      </c>
-      <c r="F350" t="s">
-        <v>690</v>
       </c>
       <c r="G350" t="n">
         <v>4</v>
@@ -12857,10 +12854,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
+        <v>690</v>
+      </c>
+      <c r="F351" t="s">
         <v>691</v>
-      </c>
-      <c r="F351" t="s">
-        <v>692</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12886,10 +12883,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
+        <v>692</v>
+      </c>
+      <c r="F352" t="s">
         <v>693</v>
-      </c>
-      <c r="F352" t="s">
-        <v>694</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12915,10 +12912,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
+        <v>694</v>
+      </c>
+      <c r="F353" t="s">
         <v>695</v>
-      </c>
-      <c r="F353" t="s">
-        <v>696</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -12944,10 +12941,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
+        <v>696</v>
+      </c>
+      <c r="F354" t="s">
         <v>697</v>
-      </c>
-      <c r="F354" t="s">
-        <v>698</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12973,10 +12970,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
+        <v>698</v>
+      </c>
+      <c r="F355" t="s">
         <v>699</v>
-      </c>
-      <c r="F355" t="s">
-        <v>700</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13002,10 +12999,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
+        <v>700</v>
+      </c>
+      <c r="F356" t="s">
         <v>701</v>
-      </c>
-      <c r="F356" t="s">
-        <v>702</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13031,10 +13028,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
+        <v>702</v>
+      </c>
+      <c r="F357" t="s">
         <v>703</v>
-      </c>
-      <c r="F357" t="s">
-        <v>704</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13060,10 +13057,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
+        <v>704</v>
+      </c>
+      <c r="F358" t="s">
         <v>705</v>
-      </c>
-      <c r="F358" t="s">
-        <v>706</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13089,10 +13086,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
+        <v>706</v>
+      </c>
+      <c r="F359" t="s">
         <v>707</v>
-      </c>
-      <c r="F359" t="s">
-        <v>708</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13118,10 +13115,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
+        <v>708</v>
+      </c>
+      <c r="F360" t="s">
         <v>709</v>
-      </c>
-      <c r="F360" t="s">
-        <v>710</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13147,10 +13144,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
+        <v>710</v>
+      </c>
+      <c r="F361" t="s">
         <v>711</v>
-      </c>
-      <c r="F361" t="s">
-        <v>712</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13176,10 +13173,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
+        <v>712</v>
+      </c>
+      <c r="F362" t="s">
         <v>713</v>
-      </c>
-      <c r="F362" t="s">
-        <v>714</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13205,10 +13202,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
+        <v>714</v>
+      </c>
+      <c r="F363" t="s">
         <v>715</v>
-      </c>
-      <c r="F363" t="s">
-        <v>716</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13234,10 +13231,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
+        <v>716</v>
+      </c>
+      <c r="F364" t="s">
         <v>717</v>
-      </c>
-      <c r="F364" t="s">
-        <v>718</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13263,10 +13260,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
+        <v>718</v>
+      </c>
+      <c r="F365" t="s">
         <v>719</v>
-      </c>
-      <c r="F365" t="s">
-        <v>720</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13292,10 +13289,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
+        <v>720</v>
+      </c>
+      <c r="F366" t="s">
         <v>721</v>
-      </c>
-      <c r="F366" t="s">
-        <v>722</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13321,10 +13318,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
+        <v>722</v>
+      </c>
+      <c r="F367" t="s">
         <v>723</v>
-      </c>
-      <c r="F367" t="s">
-        <v>724</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13350,10 +13347,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
+        <v>724</v>
+      </c>
+      <c r="F368" t="s">
         <v>725</v>
-      </c>
-      <c r="F368" t="s">
-        <v>726</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13379,10 +13376,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
+        <v>726</v>
+      </c>
+      <c r="F369" t="s">
         <v>727</v>
-      </c>
-      <c r="F369" t="s">
-        <v>728</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13408,10 +13405,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
+        <v>728</v>
+      </c>
+      <c r="F370" t="s">
         <v>729</v>
-      </c>
-      <c r="F370" t="s">
-        <v>730</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13437,10 +13434,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
+        <v>730</v>
+      </c>
+      <c r="F371" t="s">
         <v>731</v>
-      </c>
-      <c r="F371" t="s">
-        <v>732</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13466,10 +13463,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
+        <v>732</v>
+      </c>
+      <c r="F372" t="s">
         <v>733</v>
-      </c>
-      <c r="F372" t="s">
-        <v>734</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13495,10 +13492,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
+        <v>734</v>
+      </c>
+      <c r="F373" t="s">
         <v>735</v>
-      </c>
-      <c r="F373" t="s">
-        <v>736</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13524,10 +13521,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
+        <v>736</v>
+      </c>
+      <c r="F374" t="s">
         <v>737</v>
-      </c>
-      <c r="F374" t="s">
-        <v>738</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13553,10 +13550,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
+        <v>738</v>
+      </c>
+      <c r="F375" t="s">
         <v>739</v>
-      </c>
-      <c r="F375" t="s">
-        <v>740</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13582,10 +13579,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
+        <v>740</v>
+      </c>
+      <c r="F376" t="s">
         <v>741</v>
-      </c>
-      <c r="F376" t="s">
-        <v>742</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13611,10 +13608,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
+        <v>742</v>
+      </c>
+      <c r="F377" t="s">
         <v>743</v>
-      </c>
-      <c r="F377" t="s">
-        <v>744</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13640,10 +13637,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
+        <v>744</v>
+      </c>
+      <c r="F378" t="s">
         <v>745</v>
-      </c>
-      <c r="F378" t="s">
-        <v>746</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13669,10 +13666,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
+        <v>746</v>
+      </c>
+      <c r="F379" t="s">
         <v>747</v>
-      </c>
-      <c r="F379" t="s">
-        <v>748</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13698,10 +13695,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
+        <v>748</v>
+      </c>
+      <c r="F380" t="s">
         <v>749</v>
-      </c>
-      <c r="F380" t="s">
-        <v>750</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13727,10 +13724,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
+        <v>750</v>
+      </c>
+      <c r="F381" t="s">
         <v>751</v>
-      </c>
-      <c r="F381" t="s">
-        <v>752</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13756,10 +13753,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
+        <v>752</v>
+      </c>
+      <c r="F382" t="s">
         <v>753</v>
-      </c>
-      <c r="F382" t="s">
-        <v>754</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13785,10 +13782,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
+        <v>754</v>
+      </c>
+      <c r="F383" t="s">
         <v>755</v>
-      </c>
-      <c r="F383" t="s">
-        <v>756</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13814,10 +13811,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
+        <v>756</v>
+      </c>
+      <c r="F384" t="s">
         <v>757</v>
-      </c>
-      <c r="F384" t="s">
-        <v>758</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13843,10 +13840,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
+        <v>758</v>
+      </c>
+      <c r="F385" t="s">
         <v>759</v>
-      </c>
-      <c r="F385" t="s">
-        <v>760</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13872,10 +13869,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
+        <v>760</v>
+      </c>
+      <c r="F386" t="s">
         <v>761</v>
-      </c>
-      <c r="F386" t="s">
-        <v>762</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13901,10 +13898,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
+        <v>762</v>
+      </c>
+      <c r="F387" t="s">
         <v>763</v>
-      </c>
-      <c r="F387" t="s">
-        <v>764</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13930,10 +13927,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
+        <v>764</v>
+      </c>
+      <c r="F388" t="s">
         <v>765</v>
-      </c>
-      <c r="F388" t="s">
-        <v>766</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -13959,10 +13956,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
+        <v>766</v>
+      </c>
+      <c r="F389" t="s">
         <v>767</v>
-      </c>
-      <c r="F389" t="s">
-        <v>768</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -13988,10 +13985,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
+        <v>768</v>
+      </c>
+      <c r="F390" t="s">
         <v>769</v>
-      </c>
-      <c r="F390" t="s">
-        <v>770</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14017,10 +14014,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
+        <v>770</v>
+      </c>
+      <c r="F391" t="s">
         <v>771</v>
-      </c>
-      <c r="F391" t="s">
-        <v>772</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14046,10 +14043,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
+        <v>772</v>
+      </c>
+      <c r="F392" t="s">
         <v>773</v>
-      </c>
-      <c r="F392" t="s">
-        <v>774</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
